--- a/importDataFormExcelTool/模板文档/pay.xlsx
+++ b/importDataFormExcelTool/模板文档/pay.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBB_PF\kettle\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>支付企业代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -89,6 +84,36 @@
   <si>
     <t>币制代码不存在</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3201966A68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>342452456543</t>
+  </si>
+  <si>
+    <t>342452456544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320106198012311234</t>
+  </si>
+  <si>
+    <t>320106198012311234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -148,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,6 +181,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,7 +462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,17 +470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
@@ -456,7 +495,7 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -477,7 +516,7 @@
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -492,9 +531,80 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>3201610001</v>
+      </c>
+      <c r="B2">
+        <v>2308</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>85751370513</v>
+      </c>
+      <c r="E2">
+        <v>1290</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>142</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2308</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>85751370514</v>
+      </c>
+      <c r="E3">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>8.6</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>142</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -502,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
